--- a/sample_data/MATERIAL_SAMPLE_1.xlsx
+++ b/sample_data/MATERIAL_SAMPLE_1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiseki\Projects\matecon\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamao/MyProject/matecon/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67AC50-CEBF-43C6-9899-5CA805F2D860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D572D86-A60F-964A-BADD-3F7682FF542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="-60" windowWidth="16215" windowHeight="16320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="500" windowWidth="16220" windowHeight="16320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="横桁" sheetId="3" r:id="rId1"/>
     <sheet name="排水装置" sheetId="1" r:id="rId2"/>
+    <sheet name="作業メモ" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">横桁!$B$1:$AE$50</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>No.</t>
   </si>
@@ -472,6 +473,13 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作業メモのサンプルシート</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サギョウ </t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -882,22 +890,22 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.59765625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="2"/>
-    <col min="2" max="3" width="3.5703125" style="3"/>
-    <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="12" width="7.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="3" customWidth="1"/>
-    <col min="14" max="19" width="7.140625" style="3" customWidth="1"/>
-    <col min="20" max="25" width="5.85546875" style="3" customWidth="1"/>
-    <col min="26" max="29" width="3.5703125" style="3"/>
-    <col min="30" max="31" width="5.85546875" style="3" customWidth="1"/>
-    <col min="32" max="39" width="7.140625" style="3" customWidth="1"/>
-    <col min="40" max="43" width="5.85546875" style="3" customWidth="1"/>
-    <col min="44" max="256" width="7.140625" style="3" customWidth="1"/>
-    <col min="257" max="16384" width="3.5703125" style="3"/>
+    <col min="1" max="1" width="3.59765625" style="2"/>
+    <col min="2" max="3" width="3.59765625" style="3"/>
+    <col min="4" max="4" width="7.19921875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.19921875" style="3" customWidth="1"/>
+    <col min="8" max="12" width="7.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" style="3" customWidth="1"/>
+    <col min="14" max="19" width="7.19921875" style="3" customWidth="1"/>
+    <col min="20" max="25" width="5.796875" style="3" customWidth="1"/>
+    <col min="26" max="29" width="3.59765625" style="3"/>
+    <col min="30" max="31" width="5.796875" style="3" customWidth="1"/>
+    <col min="32" max="39" width="7.19921875" style="3" customWidth="1"/>
+    <col min="40" max="43" width="5.796875" style="3" customWidth="1"/>
+    <col min="44" max="256" width="7.19921875" style="3" customWidth="1"/>
+    <col min="257" max="16384" width="3.59765625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1">
@@ -1590,6 +1598,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -1602,12 +1616,6 @@
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78749999999999998" right="0.39374999999999999" top="0.78749999999999998" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1624,22 +1632,22 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.59765625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="2"/>
-    <col min="2" max="3" width="3.5703125" style="3"/>
-    <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="12" width="7.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="3" customWidth="1"/>
-    <col min="14" max="19" width="7.140625" style="3" customWidth="1"/>
-    <col min="20" max="25" width="5.85546875" style="3" customWidth="1"/>
-    <col min="26" max="29" width="3.5703125" style="3"/>
-    <col min="30" max="31" width="5.85546875" style="3" customWidth="1"/>
-    <col min="32" max="39" width="7.140625" style="3" customWidth="1"/>
-    <col min="40" max="43" width="5.85546875" style="3" customWidth="1"/>
-    <col min="44" max="256" width="7.140625" style="3" customWidth="1"/>
-    <col min="257" max="16384" width="3.5703125" style="3"/>
+    <col min="1" max="1" width="3.59765625" style="2"/>
+    <col min="2" max="3" width="3.59765625" style="3"/>
+    <col min="4" max="4" width="7.19921875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.19921875" style="3" customWidth="1"/>
+    <col min="8" max="12" width="7.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" style="3" customWidth="1"/>
+    <col min="14" max="19" width="7.19921875" style="3" customWidth="1"/>
+    <col min="20" max="25" width="5.796875" style="3" customWidth="1"/>
+    <col min="26" max="29" width="3.59765625" style="3"/>
+    <col min="30" max="31" width="5.796875" style="3" customWidth="1"/>
+    <col min="32" max="39" width="7.19921875" style="3" customWidth="1"/>
+    <col min="40" max="43" width="5.796875" style="3" customWidth="1"/>
+    <col min="44" max="256" width="7.19921875" style="3" customWidth="1"/>
+    <col min="257" max="16384" width="3.59765625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1">
@@ -2276,6 +2284,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
@@ -2284,19 +2302,30 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78749999999999998" right="0.39374999999999999" top="0.78749999999999998" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3233025A-595F-1F4B-AAA7-5DAA63D97305}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>